--- a/results/Table4.xlsx
+++ b/results/Table4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokutse/Desktop/malnutrition/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58AD47E5-B284-8447-9FCB-AC3277F5745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC8E28-CDD0-6941-B5E9-46E7131ACA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F2356CCC-7102-E64F-A71E-508951E4D878}"/>
+    <workbookView xWindow="6320" yWindow="760" windowWidth="23920" windowHeight="17740" xr2:uid="{F2356CCC-7102-E64F-A71E-508951E4D878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="148">
-  <si>
-    <t>Child's sex</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
   <si>
     <t>Male</t>
   </si>
@@ -47,18 +44,9 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Child's delivery place</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
-    <t>Public sector</t>
-  </si>
-  <si>
-    <t>Private sector</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>Atheist</t>
   </si>
   <si>
-    <t>Socio-economic status</t>
-  </si>
-  <si>
     <t>Poorest</t>
   </si>
   <si>
@@ -104,60 +89,27 @@
     <t>Richest</t>
   </si>
   <si>
-    <t>Maternal education</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Primary</t>
   </si>
   <si>
-    <t>&gt;= Secondary</t>
-  </si>
-  <si>
     <t>Mother's age (years)</t>
   </si>
   <si>
-    <t>&lt;= 24</t>
-  </si>
-  <si>
     <t>25 - 34</t>
   </si>
   <si>
-    <t>&gt;= 35</t>
-  </si>
-  <si>
-    <t>Maternal work status</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Father's education</t>
-  </si>
-  <si>
-    <t>Region of residence</t>
-  </si>
-  <si>
     <t>Coast</t>
   </si>
   <si>
-    <t>North eastern</t>
-  </si>
-  <si>
     <t>Eastern</t>
   </si>
   <si>
     <t>Central</t>
   </si>
   <si>
-    <t>Rift Valley</t>
-  </si>
-  <si>
     <t>Western</t>
   </si>
   <si>
@@ -167,12 +119,6 @@
     <t>Nairobi</t>
   </si>
   <si>
-    <t>Child's age in months</t>
-  </si>
-  <si>
-    <t>Preceeding birth interval in months</t>
-  </si>
-  <si>
     <t>Birth order number</t>
   </si>
   <si>
@@ -209,9 +155,6 @@
     <t>1.01 (1.01 - 1.02)</t>
   </si>
   <si>
-    <t>&lt;0.001</t>
-  </si>
-  <si>
     <t>0.99 (0.99 - 1.00)</t>
   </si>
   <si>
@@ -480,6 +423,60 @@
   </si>
   <si>
     <t>0.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public </t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Economic status</t>
+  </si>
+  <si>
+    <t>Mothers education</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Under 24</t>
+  </si>
+  <si>
+    <t>35+</t>
+  </si>
+  <si>
+    <t>Fathers education</t>
+  </si>
+  <si>
+    <t>N.eastern</t>
+  </si>
+  <si>
+    <t>R. Valley</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Mother employed</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Delivery place</t>
+  </si>
+  <si>
+    <t>Childs sex</t>
+  </si>
+  <si>
+    <t>Birth interval</t>
+  </si>
+  <si>
+    <t>Child age (months)</t>
   </si>
 </sst>
 </file>
@@ -526,12 +523,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,964 +847,967 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G54" sqref="G54"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.60199999999999998</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4">
         <v>1E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
         <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
         <v>1E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13">
+        <v>103</v>
+      </c>
+      <c r="G13" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.14899999999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14">
+        <v>74</v>
+      </c>
+      <c r="E14" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14">
+        <v>104</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.503</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.59099999999999997</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15">
+        <v>105</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4">
         <v>0.114</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
+        <v>107</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
+        <v>79</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4">
         <v>1E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.113</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23">
+        <v>109</v>
+      </c>
+      <c r="G23" s="4">
         <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4">
         <v>1E-3</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4">
         <v>0.68899999999999995</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26">
+        <v>110</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4">
         <v>1.4E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4">
         <v>0.24399999999999999</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27">
+        <v>111</v>
+      </c>
+      <c r="G27" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28">
+        <v>83</v>
+      </c>
+      <c r="E28" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4">
         <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29">
+        <v>84</v>
+      </c>
+      <c r="E29" s="4">
         <v>0.159</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29">
+        <v>113</v>
+      </c>
+      <c r="G29" s="4">
         <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4">
         <v>0.27300000000000002</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33">
+        <v>85</v>
+      </c>
+      <c r="E33" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33">
+        <v>114</v>
+      </c>
+      <c r="G33" s="4">
         <v>2E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
+        <v>115</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="C37" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37">
+        <v>116</v>
+      </c>
+      <c r="G37" s="4">
         <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38">
+        <v>55</v>
+      </c>
+      <c r="C38" s="4">
         <v>1E-3</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38">
+        <v>117</v>
+      </c>
+      <c r="G38" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4">
         <v>0.36899999999999999</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41">
+        <v>89</v>
+      </c>
+      <c r="E41" s="4">
         <v>0.80100000000000005</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41">
+        <v>118</v>
+      </c>
+      <c r="G41" s="4">
         <v>0.443</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="C44" s="4">
         <v>0.35499999999999998</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44">
+        <v>90</v>
+      </c>
+      <c r="E44" s="4">
         <v>1E-3</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44">
+        <v>119</v>
+      </c>
+      <c r="G44" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="C45" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45">
+        <v>91</v>
+      </c>
+      <c r="E45" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45">
+        <v>120</v>
+      </c>
+      <c r="G45" s="4">
         <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47">
+        <v>59</v>
+      </c>
+      <c r="C47" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47">
+        <v>92</v>
+      </c>
+      <c r="E47" s="4">
         <v>0.47599999999999998</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47">
+        <v>121</v>
+      </c>
+      <c r="G47" s="4">
         <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48">
+        <v>93</v>
+      </c>
+      <c r="E48" s="4">
         <v>0.38400000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48">
+        <v>122</v>
+      </c>
+      <c r="G48" s="4">
         <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4">
         <v>1.4E-2</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49">
+        <v>94</v>
+      </c>
+      <c r="E49" s="4">
         <v>0.48499999999999999</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49">
+        <v>123</v>
+      </c>
+      <c r="G49" s="4">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="C50" s="4">
         <v>1E-3</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50">
+        <v>95</v>
+      </c>
+      <c r="E50" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51">
+        <v>96</v>
+      </c>
+      <c r="E51" s="4">
         <v>0.214</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51">
+        <v>125</v>
+      </c>
+      <c r="G51" s="4">
         <v>0.503</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52">
+        <v>97</v>
+      </c>
+      <c r="E52" s="4">
         <v>2E-3</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52">
+        <v>126</v>
+      </c>
+      <c r="G52" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53">
+        <v>98</v>
+      </c>
+      <c r="E53" s="4">
         <v>2E-3</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53">
+        <v>127</v>
+      </c>
+      <c r="G53" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
